--- a/Code/Results/Cases/Case_11_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_11_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49266632314295</v>
+        <v>13.5504697158509</v>
       </c>
       <c r="C2">
-        <v>18.96828366782543</v>
+        <v>6.613961005371259</v>
       </c>
       <c r="D2">
-        <v>4.333588960490924</v>
+        <v>4.001163129041961</v>
       </c>
       <c r="E2">
-        <v>29.21382029618269</v>
+        <v>6.644900417821735</v>
       </c>
       <c r="F2">
-        <v>18.59124872237463</v>
+        <v>28.01341643165149</v>
       </c>
       <c r="G2">
-        <v>2.071584505415577</v>
+        <v>35.65926274238409</v>
       </c>
       <c r="H2">
-        <v>3.159216038339132</v>
+        <v>3.814251365118845</v>
       </c>
       <c r="I2">
-        <v>3.138252493947185</v>
+        <v>4.282775944775958</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.33473087140273</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.92346112913702</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.511182504892949</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.767290951154274</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.89066642815523</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.454916609264465</v>
       </c>
       <c r="Q2">
-        <v>14.5687144452271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.31449213953726</v>
+      </c>
+      <c r="R2">
+        <v>14.81870160649481</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.88573587628169</v>
+        <v>12.76405107881553</v>
       </c>
       <c r="C3">
-        <v>17.85725570160992</v>
+        <v>6.242989816156969</v>
       </c>
       <c r="D3">
-        <v>4.196859081625459</v>
+        <v>3.870033282960541</v>
       </c>
       <c r="E3">
-        <v>27.32102133038484</v>
+        <v>6.538736976077172</v>
       </c>
       <c r="F3">
-        <v>18.00587086705919</v>
+        <v>27.64738440632478</v>
       </c>
       <c r="G3">
-        <v>2.076468730828436</v>
+        <v>35.17851816178884</v>
       </c>
       <c r="H3">
-        <v>2.90028629522092</v>
+        <v>4.017613034273229</v>
       </c>
       <c r="I3">
-        <v>2.942540537153831</v>
+        <v>4.445474953491558</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.25440532126149</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.85215619038364</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.750933145224903</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.723112544527549</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.29145591009128</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.325500374804712</v>
       </c>
       <c r="Q3">
-        <v>14.3407332244305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.975337241411919</v>
+      </c>
+      <c r="R3">
+        <v>14.95004971811635</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83970279736576</v>
+        <v>12.25492477741993</v>
       </c>
       <c r="C4">
-        <v>17.14498019991685</v>
+        <v>6.006551659307803</v>
       </c>
       <c r="D4">
-        <v>4.110482788901874</v>
+        <v>3.788267398884893</v>
       </c>
       <c r="E4">
-        <v>26.09414241005118</v>
+        <v>6.471834646247826</v>
       </c>
       <c r="F4">
-        <v>17.64924845131027</v>
+        <v>27.42595888044285</v>
       </c>
       <c r="G4">
-        <v>2.07955589531849</v>
+        <v>34.89167123844737</v>
       </c>
       <c r="H4">
-        <v>2.735997085624268</v>
+        <v>4.147153146942994</v>
       </c>
       <c r="I4">
-        <v>2.819518945045894</v>
+        <v>4.549879810029271</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.2054730951088</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.81067981087433</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.93892725471526</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.694852974462908</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.906800197438532</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.245474810935995</v>
       </c>
       <c r="Q4">
-        <v>14.2082728333152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.761939344995577</v>
+      </c>
+      <c r="R4">
+        <v>15.03177823283984</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39827057864807</v>
+        <v>12.03532403716819</v>
       </c>
       <c r="C5">
-        <v>16.86313572588381</v>
+        <v>5.914020574011309</v>
       </c>
       <c r="D5">
-        <v>4.076836119671445</v>
+        <v>3.756009866222342</v>
       </c>
       <c r="E5">
-        <v>25.57764346556439</v>
+        <v>6.443594184430356</v>
       </c>
       <c r="F5">
-        <v>17.49084442949468</v>
+        <v>27.32769487111628</v>
       </c>
       <c r="G5">
-        <v>2.080842831687721</v>
+        <v>34.76166263988672</v>
       </c>
       <c r="H5">
-        <v>2.667542724177149</v>
+        <v>4.201526434625837</v>
       </c>
       <c r="I5">
-        <v>2.769161091993968</v>
+        <v>4.596263871744083</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.18266550546548</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.78775788630995</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.025357396590785</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.682664264842431</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.744933055582052</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.213893072563926</v>
       </c>
       <c r="Q5">
-        <v>14.14526399565041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.672881256236142</v>
+      </c>
+      <c r="R5">
+        <v>15.06394089957125</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32384007689132</v>
+        <v>11.99156010248378</v>
       </c>
       <c r="C6">
-        <v>16.8353225505169</v>
+        <v>5.90584636823116</v>
       </c>
       <c r="D6">
-        <v>4.073836145152685</v>
+        <v>3.752274423956083</v>
       </c>
       <c r="E6">
-        <v>25.49061016046219</v>
+        <v>6.438206755880484</v>
       </c>
       <c r="F6">
-        <v>17.44754621655228</v>
+        <v>27.3005166946234</v>
       </c>
       <c r="G6">
-        <v>2.081065407239584</v>
+        <v>34.72153721246461</v>
       </c>
       <c r="H6">
-        <v>2.655917759783867</v>
+        <v>4.211107829573927</v>
       </c>
       <c r="I6">
-        <v>2.761577121908168</v>
+        <v>4.607474597506695</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.175248701906</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.77592288884856</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.040288911020202</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.680153868200188</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.716532364388224</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.210046107382003</v>
       </c>
       <c r="Q6">
-        <v>14.12160564649061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.656910532832963</v>
+      </c>
+      <c r="R6">
+        <v>15.06756242818352</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83321247646425</v>
+        <v>12.22857956227413</v>
       </c>
       <c r="C7">
-        <v>17.19321626836599</v>
+        <v>6.017509521880818</v>
       </c>
       <c r="D7">
-        <v>4.117147111988736</v>
+        <v>3.79702193194569</v>
       </c>
       <c r="E7">
-        <v>26.08648815999262</v>
+        <v>6.470688080041652</v>
       </c>
       <c r="F7">
-        <v>17.60102890494004</v>
+        <v>27.37752785411094</v>
       </c>
       <c r="G7">
-        <v>2.079593170369083</v>
+        <v>34.89892228654591</v>
       </c>
       <c r="H7">
-        <v>2.734610986851889</v>
+        <v>4.14988390156006</v>
       </c>
       <c r="I7">
-        <v>2.820713870448712</v>
+        <v>4.560281904890609</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.15451880493281</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.7785467005693</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.940053715285803</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.693084015097645</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.895012712875168</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.248589914381101</v>
       </c>
       <c r="Q7">
-        <v>14.17126314780701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.755971842863609</v>
+      </c>
+      <c r="R7">
+        <v>15.02515983875738</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95016255225594</v>
+        <v>13.24676954388981</v>
       </c>
       <c r="C8">
-        <v>18.65577656276812</v>
+        <v>6.489209703548834</v>
       </c>
       <c r="D8">
-        <v>4.296175493917771</v>
+        <v>3.977109097653048</v>
       </c>
       <c r="E8">
-        <v>28.57366895627258</v>
+        <v>6.60985567135063</v>
       </c>
       <c r="F8">
-        <v>18.33033639464374</v>
+        <v>27.79119986759419</v>
       </c>
       <c r="G8">
-        <v>2.073275125169522</v>
+        <v>35.62356740875389</v>
       </c>
       <c r="H8">
-        <v>3.070445310790362</v>
+        <v>3.887228455754963</v>
       </c>
       <c r="I8">
-        <v>3.073227600650782</v>
+        <v>4.351578275495222</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.16056765501768</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.83726773161552</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.585134480934101</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.749637770389433</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.66406707000425</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.41451042563233</v>
       </c>
       <c r="Q8">
-        <v>14.44169348795232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.18919946540266</v>
+      </c>
+      <c r="R8">
+        <v>14.85026717364847</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63402988064382</v>
+        <v>15.07888273592636</v>
       </c>
       <c r="C9">
-        <v>21.197725204966</v>
+        <v>7.340356350165503</v>
       </c>
       <c r="D9">
-        <v>4.614753228655371</v>
+        <v>4.293550038685622</v>
       </c>
       <c r="E9">
-        <v>32.94140957282742</v>
+        <v>6.868160957765898</v>
       </c>
       <c r="F9">
-        <v>19.85430217178764</v>
+        <v>28.74189278964795</v>
       </c>
       <c r="G9">
-        <v>2.06152701904097</v>
+        <v>36.97536194934811</v>
       </c>
       <c r="H9">
-        <v>3.688970248645137</v>
+        <v>3.403829763085866</v>
       </c>
       <c r="I9">
-        <v>3.5447492924246</v>
+        <v>3.960224710235338</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.3392652737702</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.04557610241667</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.229160852902311</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.85506909966102</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.14861640301566</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.728694972482876</v>
       </c>
       <c r="Q9">
-        <v>15.09616439954949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.00514318241308</v>
+      </c>
+      <c r="R9">
+        <v>14.53185361814188</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05482127450283</v>
+        <v>16.22284791423728</v>
       </c>
       <c r="C10">
-        <v>22.928038186333</v>
+        <v>7.911164898004023</v>
       </c>
       <c r="D10">
-        <v>4.874742813704069</v>
+        <v>4.518525088622261</v>
       </c>
       <c r="E10">
-        <v>34.9646762972166</v>
+        <v>7.002108963916756</v>
       </c>
       <c r="F10">
-        <v>20.76645788651782</v>
+        <v>29.2025212182793</v>
       </c>
       <c r="G10">
-        <v>2.053507625778628</v>
+        <v>38.10958952023965</v>
       </c>
       <c r="H10">
-        <v>4.0828560900355</v>
+        <v>3.098387938964062</v>
       </c>
       <c r="I10">
-        <v>3.872324092016694</v>
+        <v>3.707558836485543</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.2041827273525</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.06672069699205</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.190265337889115</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.913532457033376</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.15437908298819</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.89379568609654</v>
       </c>
       <c r="Q10">
-        <v>15.44422833104606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.50255851013591</v>
+      </c>
+      <c r="R10">
+        <v>14.27233258948726</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.06280360374938</v>
+        <v>16.32207912535914</v>
       </c>
       <c r="C11">
-        <v>23.67909720321394</v>
+        <v>8.244471698150951</v>
       </c>
       <c r="D11">
-        <v>5.319755378876647</v>
+        <v>4.453939488131332</v>
       </c>
       <c r="E11">
-        <v>28.3645749766292</v>
+        <v>6.66919142336124</v>
       </c>
       <c r="F11">
-        <v>19.49143900051977</v>
+        <v>27.99563081878821</v>
       </c>
       <c r="G11">
-        <v>2.051789214662098</v>
+        <v>37.3547652243218</v>
       </c>
       <c r="H11">
-        <v>4.451631542486619</v>
+        <v>3.758030578659864</v>
       </c>
       <c r="I11">
-        <v>3.959039045160723</v>
+        <v>3.663972393636045</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.45517373615833</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.28835573425458</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.221637027891885</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.871370679484773</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.36903381273521</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.456036621788747</v>
       </c>
       <c r="Q11">
-        <v>14.22126316644512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.19150237050643</v>
+      </c>
+      <c r="R11">
+        <v>14.01479405617732</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42548808711483</v>
+        <v>16.20428202404752</v>
       </c>
       <c r="C12">
-        <v>23.9023462235017</v>
+        <v>8.406451426006102</v>
       </c>
       <c r="D12">
-        <v>5.642827013362487</v>
+        <v>4.328923980745386</v>
       </c>
       <c r="E12">
-        <v>22.41126104158498</v>
+        <v>6.440342488102744</v>
       </c>
       <c r="F12">
-        <v>18.26442248682248</v>
+        <v>26.97261891459016</v>
       </c>
       <c r="G12">
-        <v>2.051750605528799</v>
+        <v>36.31417180037866</v>
       </c>
       <c r="H12">
-        <v>5.267815255078704</v>
+        <v>4.876463085742128</v>
       </c>
       <c r="I12">
-        <v>3.968982522168912</v>
+        <v>3.658078249259645</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.02601095262645</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.69974526316825</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.240436694412043</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.876336472566183</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.36646795706167</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.068693766483619</v>
       </c>
       <c r="Q12">
-        <v>13.1551535732224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.82883502238901</v>
+      </c>
+      <c r="R12">
+        <v>13.88725063024048</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32574147658034</v>
+        <v>15.89654246023136</v>
       </c>
       <c r="C13">
-        <v>23.8023350085204</v>
+        <v>8.490001376891842</v>
       </c>
       <c r="D13">
-        <v>5.904668838461662</v>
+        <v>4.143882792388011</v>
       </c>
       <c r="E13">
-        <v>16.48110235038558</v>
+        <v>6.284688781964482</v>
       </c>
       <c r="F13">
-        <v>16.90881854901085</v>
+        <v>26.01475404908619</v>
       </c>
       <c r="G13">
-        <v>2.053024761394272</v>
+        <v>34.75673525305996</v>
       </c>
       <c r="H13">
-        <v>6.295261935674344</v>
+        <v>6.149896927079702</v>
       </c>
       <c r="I13">
-        <v>3.922986396371375</v>
+        <v>3.694789706250934</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.84691248626325</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.20673496748425</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.236083730609767</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.914060232880988</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.2044607045949</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.70502309444534</v>
       </c>
       <c r="Q13">
-        <v>12.08345473812526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.39774735985984</v>
+      </c>
+      <c r="R13">
+        <v>13.8413897828827</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.04587492091814</v>
+        <v>15.58600399334263</v>
       </c>
       <c r="C14">
-        <v>23.59796749859168</v>
+        <v>8.519198681206111</v>
       </c>
       <c r="D14">
-        <v>6.064911838226821</v>
+        <v>3.988338011088965</v>
       </c>
       <c r="E14">
-        <v>12.39948689670872</v>
+        <v>6.227591977523775</v>
       </c>
       <c r="F14">
-        <v>15.87950193874549</v>
+        <v>25.36207895533055</v>
       </c>
       <c r="G14">
-        <v>2.054486513402981</v>
+        <v>33.43327195741107</v>
       </c>
       <c r="H14">
-        <v>7.098170924744764</v>
+        <v>7.089753252345729</v>
       </c>
       <c r="I14">
-        <v>3.867096236766066</v>
+        <v>3.742678774812891</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.81528417399029</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.89873245568162</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.223046277841992</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.960287554677804</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.0153726826166</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.46966026996729</v>
       </c>
       <c r="Q14">
-        <v>11.32485027251851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.06094691626142</v>
+      </c>
+      <c r="R14">
+        <v>13.84419759979037</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.8771560147254</v>
+        <v>15.462379999807</v>
       </c>
       <c r="C15">
-        <v>23.49405501822589</v>
+        <v>8.515173130752407</v>
       </c>
       <c r="D15">
-        <v>6.093011043100423</v>
+        <v>3.940316843798681</v>
       </c>
       <c r="E15">
-        <v>11.41723285621635</v>
+        <v>6.218814677893401</v>
       </c>
       <c r="F15">
-        <v>15.5867530759949</v>
+        <v>25.20433355934256</v>
       </c>
       <c r="G15">
-        <v>2.055159410205087</v>
+        <v>33.00409189092893</v>
       </c>
       <c r="H15">
-        <v>7.282752320104646</v>
+        <v>7.313652950107401</v>
       </c>
       <c r="I15">
-        <v>3.841502725540322</v>
+        <v>3.768278916492612</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.84530839853374</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.83405920992926</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.215955209037012</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.971700921451253</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.9323627398171</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.415655352179475</v>
       </c>
       <c r="Q15">
-        <v>11.1299896727916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.963239477935245</v>
+      </c>
+      <c r="R15">
+        <v>13.85757715621616</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90608954675489</v>
+        <v>15.05716289168161</v>
       </c>
       <c r="C16">
-        <v>22.82702198544147</v>
+        <v>8.335532892843714</v>
       </c>
       <c r="D16">
-        <v>5.945605588702913</v>
+        <v>3.84453782410771</v>
       </c>
       <c r="E16">
-        <v>11.28027543478703</v>
+        <v>6.191831368110773</v>
       </c>
       <c r="F16">
-        <v>15.37602402775759</v>
+        <v>25.29953023190059</v>
       </c>
       <c r="G16">
-        <v>2.058301267800048</v>
+        <v>32.28347947602196</v>
       </c>
       <c r="H16">
-        <v>7.001793318481235</v>
+        <v>7.15310699059271</v>
       </c>
       <c r="I16">
-        <v>3.713436795145757</v>
+        <v>3.869781311791567</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.1999443698264</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.98200483465363</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.18919409165283</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.936348528364839</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.58309430543667</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.417710313517675</v>
       </c>
       <c r="Q16">
-        <v>11.15774339611703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.836017625114872</v>
+      </c>
+      <c r="R16">
+        <v>13.97380091050195</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29981657985098</v>
+        <v>14.90691953695458</v>
       </c>
       <c r="C17">
-        <v>22.41983437938699</v>
+        <v>8.168739947713668</v>
       </c>
       <c r="D17">
-        <v>5.742303216938881</v>
+        <v>3.860704299228492</v>
       </c>
       <c r="E17">
-        <v>13.38635553275821</v>
+        <v>6.188226318556045</v>
       </c>
       <c r="F17">
-        <v>15.7802112669253</v>
+        <v>25.70266247243127</v>
       </c>
       <c r="G17">
-        <v>2.059961030497345</v>
+        <v>32.51992812741815</v>
       </c>
       <c r="H17">
-        <v>6.307931783648366</v>
+        <v>6.507393988486425</v>
       </c>
       <c r="I17">
-        <v>3.644269112860384</v>
+        <v>3.923757929396163</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.45877789088672</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.24853382823341</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.185292690534322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.880693723213985</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.40712493758813</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.54090292896916</v>
       </c>
       <c r="Q17">
-        <v>11.58299135364639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.919466452212186</v>
+      </c>
+      <c r="R17">
+        <v>14.06379291608232</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95452436606275</v>
+        <v>14.98550876287464</v>
       </c>
       <c r="C18">
-        <v>22.16444665626625</v>
+        <v>7.994936739491706</v>
       </c>
       <c r="D18">
-        <v>5.465780429740172</v>
+        <v>3.963427857649549</v>
       </c>
       <c r="E18">
-        <v>17.95867208990727</v>
+        <v>6.256525810252174</v>
       </c>
       <c r="F18">
-        <v>16.78554409291046</v>
+        <v>26.47307555537457</v>
       </c>
       <c r="G18">
-        <v>2.060395421184307</v>
+        <v>33.50475733416019</v>
       </c>
       <c r="H18">
-        <v>5.266155076833628</v>
+        <v>5.427706265489588</v>
       </c>
       <c r="I18">
-        <v>3.619276282305147</v>
+        <v>3.930066218798527</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.73675629456543</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.68714212697548</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.187684376799163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.825226282008389</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.37915591344031</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.800948060579377</v>
       </c>
       <c r="Q18">
-        <v>12.42595252609114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.19924704419979</v>
+      </c>
+      <c r="R18">
+        <v>14.15369153171108</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.85164769548753</v>
+        <v>15.21501231227579</v>
       </c>
       <c r="C19">
-        <v>22.13903500602907</v>
+        <v>7.86877578650656</v>
       </c>
       <c r="D19">
-        <v>5.173506130908312</v>
+        <v>4.130983866831142</v>
       </c>
       <c r="E19">
-        <v>24.24597306498533</v>
+        <v>6.449938520826589</v>
       </c>
       <c r="F19">
-        <v>18.11461374072026</v>
+        <v>27.45066523946219</v>
       </c>
       <c r="G19">
-        <v>2.059659617645809</v>
+        <v>34.88488774390854</v>
       </c>
       <c r="H19">
-        <v>4.278060908810593</v>
+        <v>4.242959032341107</v>
       </c>
       <c r="I19">
-        <v>3.643304718169249</v>
+        <v>3.913814614414109</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.02435831335489</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.21410409339327</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.189292129626605</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.809468003956745</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.47199565424274</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.182923376154997</v>
       </c>
       <c r="Q19">
-        <v>13.49383433671839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.60990602811135</v>
+      </c>
+      <c r="R19">
+        <v>14.24539379550402</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43636915149335</v>
+        <v>15.89772354950066</v>
       </c>
       <c r="C20">
-        <v>22.61293314624111</v>
+        <v>7.834467297388187</v>
       </c>
       <c r="D20">
-        <v>4.829660403423384</v>
+        <v>4.455972797614399</v>
       </c>
       <c r="E20">
-        <v>34.40385939798826</v>
+        <v>6.95632019550859</v>
       </c>
       <c r="F20">
-        <v>20.3946872154569</v>
+        <v>29.0474849157859</v>
       </c>
       <c r="G20">
-        <v>2.0556477065682</v>
+        <v>37.44610635144289</v>
       </c>
       <c r="H20">
-        <v>3.977166495449919</v>
+        <v>3.178617835285368</v>
       </c>
       <c r="I20">
-        <v>3.792827574933824</v>
+        <v>3.801021520448916</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.34774069148627</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.02571436750446</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.185228757141232</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.89556604637301</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.90547642806939</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.859612178669122</v>
       </c>
       <c r="Q20">
-        <v>15.24019517860266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.36871308013984</v>
+      </c>
+      <c r="R20">
+        <v>14.33432136040831</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2128873691445</v>
+        <v>16.73401183272892</v>
       </c>
       <c r="C21">
-        <v>23.87180592760401</v>
+        <v>8.120176620846843</v>
       </c>
       <c r="D21">
-        <v>4.963924874935277</v>
+        <v>4.737760420601171</v>
       </c>
       <c r="E21">
-        <v>37.23156527326921</v>
+        <v>7.160220485080875</v>
       </c>
       <c r="F21">
-        <v>21.41888838623526</v>
+        <v>29.33792641652246</v>
       </c>
       <c r="G21">
-        <v>2.049227471009077</v>
+        <v>39.78080085528957</v>
       </c>
       <c r="H21">
-        <v>4.331854164063795</v>
+        <v>2.922330661563838</v>
       </c>
       <c r="I21">
-        <v>4.05173183932555</v>
+        <v>3.608707630521104</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.6168112924653</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.00241403852713</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.226689665585314</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.953231530840476</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.58406628873021</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.073103478807361</v>
       </c>
       <c r="Q21">
-        <v>15.78587279155189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.80402808520762</v>
+      </c>
+      <c r="R21">
+        <v>14.12547844818769</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32256361032284</v>
+        <v>17.25017200538735</v>
       </c>
       <c r="C22">
-        <v>24.6138801197208</v>
+        <v>8.286081857885248</v>
       </c>
       <c r="D22">
-        <v>5.059435747161129</v>
+        <v>4.907668254179884</v>
       </c>
       <c r="E22">
-        <v>38.57128553915183</v>
+        <v>7.269913849468504</v>
       </c>
       <c r="F22">
-        <v>22.03675548966449</v>
+        <v>29.46785181833082</v>
       </c>
       <c r="G22">
-        <v>2.045186385304464</v>
+        <v>41.36562389386433</v>
       </c>
       <c r="H22">
-        <v>4.540833089149837</v>
+        <v>2.768803479472989</v>
       </c>
       <c r="I22">
-        <v>4.212966268023601</v>
+        <v>3.476752258698684</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.11874661580975</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.96070489460968</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.293962255525588</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.985475226971064</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.99642315006044</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.175343644702946</v>
       </c>
       <c r="Q22">
-        <v>16.11096486298121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.05247816898633</v>
+      </c>
+      <c r="R22">
+        <v>13.98400839776233</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.73534804202202</v>
+        <v>17.00291634583949</v>
       </c>
       <c r="C23">
-        <v>24.17410756943924</v>
+        <v>8.194844334368939</v>
       </c>
       <c r="D23">
-        <v>5.001185173529103</v>
+        <v>4.801997175457811</v>
       </c>
       <c r="E23">
-        <v>37.86180514530616</v>
+        <v>7.210152373271956</v>
       </c>
       <c r="F23">
-        <v>21.75145750447885</v>
+        <v>29.47218129061274</v>
       </c>
       <c r="G23">
-        <v>2.047321382313501</v>
+        <v>40.41627338638448</v>
       </c>
       <c r="H23">
-        <v>4.430018046149989</v>
+        <v>2.848013249323604</v>
       </c>
       <c r="I23">
-        <v>4.124763455075183</v>
+        <v>3.533836425499195</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.479121893866</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.03194550400033</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.254461842829853</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.970147887995454</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.79337008642726</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.117403501168483</v>
       </c>
       <c r="Q23">
-        <v>15.97437081622241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.92752587421353</v>
+      </c>
+      <c r="R23">
+        <v>14.06899107152191</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.41053052578191</v>
+        <v>15.94056511254789</v>
       </c>
       <c r="C24">
-        <v>22.52351586716033</v>
+        <v>7.789427469068311</v>
       </c>
       <c r="D24">
-        <v>4.786763194111646</v>
+        <v>4.4647188898763</v>
       </c>
       <c r="E24">
-        <v>35.06520157565711</v>
+        <v>6.997921880910134</v>
       </c>
       <c r="F24">
-        <v>20.60081722598498</v>
+        <v>29.20167831983975</v>
       </c>
       <c r="G24">
-        <v>2.055542008347234</v>
+        <v>37.66737156766241</v>
       </c>
       <c r="H24">
-        <v>4.002604939480796</v>
+        <v>3.162407061379525</v>
       </c>
       <c r="I24">
-        <v>3.79065573902421</v>
+        <v>3.781435534552947</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.40056530274136</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.12413922458101</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.185243216919365</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.905871236233663</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.91414850264672</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.898781148849153</v>
       </c>
       <c r="Q24">
-        <v>15.41479316140643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.41330936869689</v>
+      </c>
+      <c r="R24">
+        <v>14.35715946802839</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68629855093528</v>
+        <v>14.58409505124052</v>
       </c>
       <c r="C25">
-        <v>20.61659098146711</v>
+        <v>7.156883946665216</v>
       </c>
       <c r="D25">
-        <v>4.543036311527937</v>
+        <v>4.210405747832594</v>
       </c>
       <c r="E25">
-        <v>31.81296454054986</v>
+        <v>6.795242717246897</v>
       </c>
       <c r="F25">
-        <v>19.36590674883738</v>
+        <v>28.4554496363255</v>
       </c>
       <c r="G25">
-        <v>2.064667127147425</v>
+        <v>36.43222514189484</v>
       </c>
       <c r="H25">
-        <v>3.52510738843625</v>
+        <v>3.531998664601585</v>
       </c>
       <c r="I25">
-        <v>3.422478011629868</v>
+        <v>4.077953219139339</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.33025362283342</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.9624226465025</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.287061637976774</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.825832153812637</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.73852111957145</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.651317265192973</v>
       </c>
       <c r="Q25">
-        <v>14.85062811068665</v>
+        <v>10.78713202127087</v>
+      </c>
+      <c r="R25">
+        <v>14.61263918458712</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
